--- a/src/main/resources/testData/DataEngine.xlsx
+++ b/src/main/resources/testData/DataEngine.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -54,76 +54,82 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">TS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">managerLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify manager with valid credentials can login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginNegativeTestcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the marketing status in propertypage and edit page are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quit driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quitedriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketStatusCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_03</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_03</t>
   </si>
   <si>
-    <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify manager with valid credentials can login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">managerLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the marketing status in propertypage and edit page are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_02_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_02_TS_02</t>
+    <t xml:space="preserve">TC_03_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03_TS_02</t>
   </si>
   <si>
     <t xml:space="preserve">To add a unassigned device to a property</t>
   </si>
   <si>
     <t xml:space="preserve">addDevicetoProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_02_TS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quit driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitedriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loginNegativeTestcase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03_TS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marketStatusCheck</t>
   </si>
   <si>
     <t xml:space="preserve">TC_03_TS_03</t>
@@ -139,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,6 +166,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -211,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +234,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,20 +258,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="D3 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.35" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.16" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="9.2" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.71" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.53" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.73" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.69" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.08" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,7 +299,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,17 +311,6 @@
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -323,20 +329,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.36" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="49.74" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="30.28" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="18.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.53" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="44.95" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="27.27" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="16.47" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,13 +350,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -361,16 +367,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,103 +384,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -501,12 +437,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.13" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.1" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="57.98" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="24.91" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.71" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="10.39" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.88" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="52.78" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="22.28" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.08" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -531,16 +467,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,12 +498,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -576,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>7</v>
@@ -593,13 +529,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>7</v>
@@ -610,12 +546,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -624,16 +560,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>7</v>
@@ -641,16 +577,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>7</v>
@@ -658,15 +594,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="0" t="s">

--- a/src/main/resources/testData/DataEngine.xlsx
+++ b/src/main/resources/testData/DataEngine.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="39">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -54,43 +54,76 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">TS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">managerLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify manager with valid credentials can login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginNegativeTestcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the marketing status in propertypage and edit page are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01_TS_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quit driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quitedriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketStatusCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02_TS_03</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_03</t>
   </si>
   <si>
-    <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify manager with valid credentials can login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">managerLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the marketing status in propertypage and edit page are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_02_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_02_TS_02</t>
+    <t xml:space="preserve">TC_03_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03_TS_02</t>
   </si>
   <si>
     <t xml:space="preserve">To add a unassigned device to a property</t>
@@ -99,37 +132,13 @@
     <t xml:space="preserve">addDevicetoProperty</t>
   </si>
   <si>
-    <t xml:space="preserve">TC_02_TS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quit driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitedriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03_TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loginNegativeTestcase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03_TS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_01_TS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marketStatusCheck</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_03_TS_03</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,6 +169,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -211,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +237,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,20 +261,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.35" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.16" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="9.2" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.71" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.53" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.73" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.69" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.08" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,17 +314,6 @@
       </c>
       <c r="E3" s="0" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -323,20 +332,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.36" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="49.74" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="30.28" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="18.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.53" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="44.95" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="27.27" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="16.47" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,13 +353,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -361,16 +370,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,103 +387,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -501,12 +440,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.13" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.1" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="57.98" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="24.91" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.71" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="10.39" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.88" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="52.78" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="22.28" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="6.08" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="true" hidden="false" style="0" width="8.37" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -531,16 +470,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,12 +501,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -576,13 +515,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>7</v>
@@ -593,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>7</v>
@@ -610,12 +549,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -624,16 +563,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>7</v>
@@ -641,16 +580,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>7</v>
@@ -658,15 +597,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="0" t="s">
